--- a/biology/Botanique/Square_Jean-Perrin/Square_Jean-Perrin.xlsx
+++ b/biology/Botanique/Square_Jean-Perrin/Square_Jean-Perrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Jean-Perrin est un square situé dans le 8e arrondissement de Paris.
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site se trouve le long de la façade nord du Grand Palais[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site se trouve le long de la façade nord du Grand Palais,.
 Il est desservi par les lignes 1 et 13 à la station Champs-Élysées - Clemenceau.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square rend hommage au chimiste et homme politique Jean Perrin (1870-1942), prix Nobel de physique en 1926[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square rend hommage au chimiste et homme politique Jean Perrin (1870-1942), prix Nobel de physique en 1926,.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre la fontaine Miroir d'eau, la Seine et ses affluents de François-Raoul Larche[1], le square accueille un monument en hommage à Jean Perrin, œuvre de la sculptrice Josette Hébert-Coëffin[2].
-Au début des années 2020, un projet de restructuration du Grand Palais prévoit le « décaissement » du square afin de faciliter l'accession au musée de part et d'autre de l'escalier donnant sur l'espace vert. L'idée est finalement abandonnée, pour une plus modeste restauration du bâtiment[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre la fontaine Miroir d'eau, la Seine et ses affluents de François-Raoul Larche, le square accueille un monument en hommage à Jean Perrin, œuvre de la sculptrice Josette Hébert-Coëffin.
+Au début des années 2020, un projet de restructuration du Grand Palais prévoit le « décaissement » du square afin de faciliter l'accession au musée de part et d'autre de l'escalier donnant sur l'espace vert. L'idée est finalement abandonnée, pour une plus modeste restauration du bâtiment.
 </t>
         </is>
       </c>
